--- a/data/zebra_mussel_economic_impact_facts.xlsx
+++ b/data/zebra_mussel_economic_impact_facts.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolepipkins/Desktop/Project3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6775655E-3A0C-8243-9CFA-E810F8A133D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE913100-B85D-F248-B692-E13F2876D8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23800" yWindow="7140" windowWidth="26840" windowHeight="15940" xr2:uid="{6B096732-1248-334B-A04A-E1A0D28CF67C}"/>
+    <workbookView xWindow="-30580" yWindow="7640" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{6B096732-1248-334B-A04A-E1A0D28CF67C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>Author</t>
   </si>
@@ -187,6 +191,12 @@
   </si>
   <si>
     <t>no data</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -222,12 +232,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,6 +258,301 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44215.784363888888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{49852D9B-C948-D94D-B8BD-3C2404785342}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I17" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Author" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Start Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1995"/>
+    </cacheField>
+    <cacheField name="End Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="Number of Years" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Geographic Area" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dollar Value" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="94" maxValue="5000000000"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems count="6">
+        <s v="general"/>
+        <s v="Facilities"/>
+        <s v="Facilites"/>
+        <s v="genreal"/>
+        <s v="Research"/>
+        <s v="Users"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Specifics" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Outcomes" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <s v="Various"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="all"/>
+    <n v="5000000000"/>
+    <x v="0"/>
+    <s v="all"/>
+    <s v="There are many studies which have attempted to estimated the cost of the zebra mussels; this is the commonly quoted figure"/>
+  </r>
+  <r>
+    <s v="Sun"/>
+    <n v="1990"/>
+    <n v="2000"/>
+    <n v="10"/>
+    <s v="Great Lakes"/>
+    <n v="5000000000"/>
+    <x v="0"/>
+    <s v="all"/>
+    <s v="Sun reports the results of the US Fish and Wildlife estimate"/>
+  </r>
+  <r>
+    <s v="Cataldo"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="10"/>
+    <s v="Great Lakes"/>
+    <n v="3100000000"/>
+    <x v="0"/>
+    <s v="all"/>
+    <s v="no data"/>
+  </r>
+  <r>
+    <s v="Armour etal"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="100000000"/>
+    <x v="1"/>
+    <s v="46 power plants"/>
+    <s v="no data"/>
+  </r>
+  <r>
+    <s v="USGS"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="83000"/>
+    <x v="1"/>
+    <s v="Hydroelectric plants"/>
+    <s v="no data"/>
+  </r>
+  <r>
+    <s v="USGS"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="145000"/>
+    <x v="1"/>
+    <s v="Fossil Fuel plants"/>
+    <s v="no data"/>
+  </r>
+  <r>
+    <s v="USGS"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="822000"/>
+    <x v="1"/>
+    <s v="Nuclear plants"/>
+    <s v="no data"/>
+  </r>
+  <r>
+    <s v="O'Neil"/>
+    <n v="1995"/>
+    <n v="1995"/>
+    <n v="1"/>
+    <s v="35 US States and 3 Canadian Provinces"/>
+    <n v="69000000"/>
+    <x v="2"/>
+    <s v="339 different facilites"/>
+    <s v="Looked at 339 facilities and measured the economic impact ($205,570 average cost per facilities)"/>
+  </r>
+  <r>
+    <s v="O'Neil"/>
+    <n v="1989"/>
+    <n v="1995"/>
+    <n v="5"/>
+    <s v="all"/>
+    <n v="88000000"/>
+    <x v="3"/>
+    <s v="all"/>
+    <s v="Estimated that the annual costs increased from $234,00 to $17,800,000"/>
+  </r>
+  <r>
+    <s v="Licking"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="3000000000"/>
+    <x v="2"/>
+    <s v="Water powerplants"/>
+    <s v="Estimaed expenditures by water powerplants"/>
+  </r>
+  <r>
+    <s v="Hushakand Deng"/>
+    <n v="1992"/>
+    <n v="1994"/>
+    <n v="2"/>
+    <s v="Great Lakes"/>
+    <n v="8800000"/>
+    <x v="4"/>
+    <s v="all"/>
+    <s v="Research expenditures"/>
+  </r>
+  <r>
+    <s v="Ruetter"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Great Lakes"/>
+    <n v="400000"/>
+    <x v="2"/>
+    <s v="large water users"/>
+    <s v="Estimate control dosts of average large water user; another study stated same figures but for cleaning water intake pipes only"/>
+  </r>
+  <r>
+    <s v="Park &amp; Husak"/>
+    <n v="1989"/>
+    <n v="1994"/>
+    <n v="4"/>
+    <s v="Great Lakes"/>
+    <n v="120000000"/>
+    <x v="2"/>
+    <s v="142 different facilities"/>
+    <s v="This was based on $0.43 million average costs per survey of 142 facilites"/>
+  </r>
+  <r>
+    <s v="Vilaplana &amp; Husak"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Lake Erie"/>
+    <n v="94"/>
+    <x v="5"/>
+    <s v="protective paint"/>
+    <s v="survey of recreation users increased expenses; low response rate"/>
+  </r>
+  <r>
+    <s v="Vilaplana &amp; Husak"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Lake Erie"/>
+    <n v="171"/>
+    <x v="5"/>
+    <s v="maintenance"/>
+    <s v="survey of recreation users increased expenses; low response rate"/>
+  </r>
+  <r>
+    <s v="Vilaplana &amp; Husak"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <s v="Lake Erie"/>
+    <n v="207"/>
+    <x v="5"/>
+    <s v="insurance"/>
+    <s v="survey of recreation users increased expenses; low response rate"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE292691-7C19-594F-BC1C-BFA3D4CAE54A}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,11 +851,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075C043C-4EFB-2D4B-AE8E-B7929B3FADBD}">
+  <dimension ref="A3:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B6E77-BC56-8C4B-B012-431107221D5B}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +1004,7 @@
       <c r="F3" s="2">
         <v>5000000000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -666,7 +1033,7 @@
       <c r="F4" s="2">
         <v>3100000000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -812,7 +1179,7 @@
         <v>69000000</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -840,8 +1207,8 @@
       <c r="F10" s="1">
         <v>88000000</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -870,7 +1237,7 @@
         <v>3000000000</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -928,7 +1295,7 @@
         <v>400000</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -957,7 +1324,7 @@
         <v>120000000</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>41</v>
